--- a/data/financial_statements/soci/DAL.xlsx
+++ b/data/financial_statements/soci/DAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1883 +590,1922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>13435000000</v>
+      </c>
+      <c r="C2">
         <v>13975000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>13824000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9348000000</v>
       </c>
-      <c r="E2">
-        <v>9470000000</v>
-      </c>
       <c r="F2">
+        <v>9469000000</v>
+      </c>
+      <c r="G2">
         <v>9154000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7126000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4150000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3973000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3062000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1468000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8592000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>11439000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>12560000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>12536000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>10472000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>10742000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11953000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>11775000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>9968000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10229000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>11061000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>10747000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>9101000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>9269000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>10483000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>10447000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>9251000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>9502000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>11107000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>10707000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>9388000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>9647000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>11178000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>10621000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>8916000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>9076000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>10490000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>9707000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>8500000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.4188</v>
+      </c>
+      <c r="C3">
         <v>0.5266999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.9399</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.2525</v>
       </c>
-      <c r="E3">
-        <v>1.3836</v>
-      </c>
       <c r="F3">
+        <v>1.3833</v>
+      </c>
+      <c r="G3">
         <v>1.9895</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.8542</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.517</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.6526999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.7562</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.8829</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.1795</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0649</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0508</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0646</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0506</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0502</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0806</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.09569999999999999</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0953</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1036</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0551</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0287</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0162</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0245</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0562</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0243</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0146</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.015</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0064</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0081</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0529</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0629</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.06560000000000001</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.09420000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0489</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0551</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0571</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0026</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0103</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>11487000000</v>
+        <v>8721000000</v>
       </c>
       <c r="C4">
-        <v>11289000000</v>
+        <v>9072000000</v>
       </c>
       <c r="D4">
-        <v>9416000000</v>
+        <v>8587000000</v>
       </c>
       <c r="E4">
-        <v>8403000000</v>
+        <v>7037000000</v>
       </c>
       <c r="F4">
-        <v>8073000000</v>
+        <v>6297000000</v>
       </c>
       <c r="G4">
+        <v>6040000000</v>
+      </c>
+      <c r="H4">
         <v>5411000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4747000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3946000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3672000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3520000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6597000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8443000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7664000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7523000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6737000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>7043000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>7450000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7202000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6353000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>6249000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6463000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>6206000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5635000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5765000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>5928000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>5536000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5338000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>9762000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>6327000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5694000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5579000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>7860000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>6989000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6352000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5734000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>5677000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>7517000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7571000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>7058000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>2488000000</v>
+        <v>4714000000</v>
       </c>
       <c r="C5">
-        <v>2535000000</v>
+        <v>4903000000</v>
       </c>
       <c r="D5">
-        <v>-68000000</v>
+        <v>5237000000</v>
       </c>
       <c r="E5">
-        <v>1067000000</v>
+        <v>2311000000</v>
       </c>
       <c r="F5">
-        <v>1081000000</v>
+        <v>3172000000</v>
       </c>
       <c r="G5">
+        <v>3114000000</v>
+      </c>
+      <c r="H5">
         <v>1715000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-597000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>27000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-610000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-2052000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1995000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2996000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4896000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>5013000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3735000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3699000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4503000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4573000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3615000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3980000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4598000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4541000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3466000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3504000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>4555000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>4911000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3913000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-260000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>4780000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>5013000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3809000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1787000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>4189000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4269000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3182000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3399000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2973000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2136000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1442000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1011000000</v>
+      </c>
+      <c r="C6">
         <v>1074000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1054000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>803000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>792000000</v>
       </c>
-      <c r="F6">
-        <v>308000000</v>
-      </c>
       <c r="G6">
+        <v>761000000</v>
+      </c>
+      <c r="H6">
         <v>625000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>511000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>474000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>390000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>388000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>975000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>167000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1439000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1443000000</v>
-      </c>
-      <c r="P6">
-        <v>1320000000</v>
       </c>
       <c r="Q6">
         <v>1320000000</v>
       </c>
       <c r="R6">
+        <v>1320000000</v>
+      </c>
+      <c r="S6">
         <v>1420000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1374000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1265000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2573000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1386000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1305000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1638000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>159000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2112000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1533000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1394000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-2821000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1536000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1518000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1439000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1615000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1829000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1801000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1692000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1758000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>447000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>408000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>357000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1470000000</v>
+      </c>
+      <c r="C7">
         <v>1456000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1519000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-783000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>263000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2205000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>816000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1398000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-858000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-6386000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-4815000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-410000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1399000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2071000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2128000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1020000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1091000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1645000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1684000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>844000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1162000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1823000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1982000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>999000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1064000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1969000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2423000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1540000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1717000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2213000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2474000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1398000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-828000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>835000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1579000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>620000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>701000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1563000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>914000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>222000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>248000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>269000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>274000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>265000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>314000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>338000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>361000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>365000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>291000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>194000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>79000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>238000000</v>
+      </c>
+      <c r="C9">
         <v>248000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>269000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>274000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>266000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>314000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>338000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>361000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>365000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>291000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>194000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>79000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>73000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>70000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>75000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>83000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>67000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>73000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>79000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>92000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>99000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>100000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>103000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>94000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>93000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>95000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>93000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>107000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>102000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>121000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>127000000</v>
-      </c>
-      <c r="AF9">
-        <v>131000000</v>
       </c>
       <c r="AG9">
         <v>131000000</v>
       </c>
       <c r="AH9">
+        <v>131000000</v>
+      </c>
+      <c r="AI9">
         <v>154000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>173000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>186000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>172000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>176000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>172000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>178000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>308000000</v>
+        <v>-350000000</v>
       </c>
       <c r="C10">
-        <v>319000000</v>
+        <v>-494000000</v>
       </c>
       <c r="D10">
-        <v>196000000</v>
+        <v>-486000000</v>
       </c>
       <c r="E10">
+        <v>-417000000</v>
+      </c>
+      <c r="F10">
+        <v>-658000000</v>
+      </c>
+      <c r="G10">
+        <v>-673000000</v>
+      </c>
+      <c r="H10">
+        <v>-40000000</v>
+      </c>
+      <c r="I10">
+        <v>-117000000</v>
+      </c>
+      <c r="J10">
+        <v>-249000000</v>
+      </c>
+      <c r="K10">
+        <v>-473000000</v>
+      </c>
+      <c r="L10">
+        <v>-2199000000</v>
+      </c>
+      <c r="M10">
+        <v>-197000000</v>
+      </c>
+      <c r="N10">
+        <v>-1000000</v>
+      </c>
+      <c r="O10">
+        <v>-124000000</v>
+      </c>
+      <c r="P10">
+        <v>-221000000</v>
+      </c>
+      <c r="Q10">
+        <v>-74000000</v>
+      </c>
+      <c r="R10">
+        <v>254000000</v>
+      </c>
+      <c r="S10">
+        <v>43000000</v>
+      </c>
+      <c r="T10">
+        <v>-298000000</v>
+      </c>
+      <c r="U10">
+        <v>-112000000</v>
+      </c>
+      <c r="V10">
+        <v>-118000000</v>
+      </c>
+      <c r="W10">
+        <v>-47000000</v>
+      </c>
+      <c r="X10">
+        <v>-151000000</v>
+      </c>
+      <c r="Y10">
+        <v>-150000000</v>
+      </c>
+      <c r="Z10">
+        <v>-395000000</v>
+      </c>
+      <c r="AA10">
+        <v>-69000000</v>
+      </c>
+      <c r="AB10">
+        <v>-73000000</v>
+      </c>
+      <c r="AC10">
+        <v>-106000000</v>
+      </c>
+      <c r="AD10">
+        <v>-184000000</v>
+      </c>
+      <c r="AE10">
+        <v>-141000000</v>
+      </c>
+      <c r="AF10">
+        <v>-108000000</v>
+      </c>
+      <c r="AG10">
+        <v>-212000000</v>
+      </c>
+      <c r="AH10">
+        <v>-312000000</v>
+      </c>
+      <c r="AI10">
+        <v>-256000000</v>
+      </c>
+      <c r="AJ10">
+        <v>-281000000</v>
+      </c>
+      <c r="AK10">
+        <v>-285000000</v>
+      </c>
+      <c r="AL10">
+        <v>-226000000</v>
+      </c>
+      <c r="AM10">
+        <v>-200000000</v>
+      </c>
+      <c r="AN10">
+        <v>-228000000</v>
+      </c>
+      <c r="AO10">
+        <v>-219000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1120000000</v>
+      </c>
+      <c r="C11">
+        <v>962000000</v>
+      </c>
+      <c r="D11">
+        <v>1033000000</v>
+      </c>
+      <c r="E11">
+        <v>-1200000000</v>
+      </c>
+      <c r="F11">
+        <v>-395000000</v>
+      </c>
+      <c r="G11">
+        <v>1532000000</v>
+      </c>
+      <c r="H11">
+        <v>776000000</v>
+      </c>
+      <c r="I11">
+        <v>-1515000000</v>
+      </c>
+      <c r="J11">
+        <v>-1107000000</v>
+      </c>
+      <c r="K11">
+        <v>-6859000000</v>
+      </c>
+      <c r="L11">
+        <v>-7014000000</v>
+      </c>
+      <c r="M11">
+        <v>-607000000</v>
+      </c>
+      <c r="N11">
+        <v>1398000000</v>
+      </c>
+      <c r="O11">
+        <v>1947000000</v>
+      </c>
+      <c r="P11">
+        <v>1907000000</v>
+      </c>
+      <c r="Q11">
+        <v>946000000</v>
+      </c>
+      <c r="R11">
+        <v>1345000000</v>
+      </c>
+      <c r="S11">
+        <v>1688000000</v>
+      </c>
+      <c r="T11">
+        <v>1386000000</v>
+      </c>
+      <c r="U11">
+        <v>732000000</v>
+      </c>
+      <c r="V11">
+        <v>1044000000</v>
+      </c>
+      <c r="W11">
+        <v>1776000000</v>
+      </c>
+      <c r="X11">
+        <v>1831000000</v>
+      </c>
+      <c r="Y11">
+        <v>849000000</v>
+      </c>
+      <c r="Z11">
+        <v>669000000</v>
+      </c>
+      <c r="AA11">
+        <v>1900000000</v>
+      </c>
+      <c r="AB11">
+        <v>2350000000</v>
+      </c>
+      <c r="AC11">
+        <v>1434000000</v>
+      </c>
+      <c r="AD11">
+        <v>1533000000</v>
+      </c>
+      <c r="AE11">
+        <v>2072000000</v>
+      </c>
+      <c r="AF11">
+        <v>2366000000</v>
+      </c>
+      <c r="AG11">
+        <v>1186000000</v>
+      </c>
+      <c r="AH11">
+        <v>-1140000000</v>
+      </c>
+      <c r="AI11">
+        <v>579000000</v>
+      </c>
+      <c r="AJ11">
+        <v>1298000000</v>
+      </c>
+      <c r="AK11">
+        <v>335000000</v>
+      </c>
+      <c r="AL11">
+        <v>475000000</v>
+      </c>
+      <c r="AM11">
+        <v>1363000000</v>
+      </c>
+      <c r="AN11">
+        <v>686000000</v>
+      </c>
+      <c r="AO11">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>292000000</v>
+      </c>
+      <c r="C12">
+        <v>267000000</v>
+      </c>
+      <c r="D12">
+        <v>298000000</v>
+      </c>
+      <c r="E12">
+        <v>-260000000</v>
+      </c>
+      <c r="F12">
+        <v>12000000</v>
+      </c>
+      <c r="G12">
+        <v>320000000</v>
+      </c>
+      <c r="H12">
+        <v>124000000</v>
+      </c>
+      <c r="I12">
+        <v>-338000000</v>
+      </c>
+      <c r="J12">
+        <v>-352000000</v>
+      </c>
+      <c r="K12">
+        <v>-1480000000</v>
+      </c>
+      <c r="L12">
+        <v>-1297000000</v>
+      </c>
+      <c r="M12">
+        <v>-73000000</v>
+      </c>
+      <c r="N12">
+        <v>299000000</v>
+      </c>
+      <c r="O12">
+        <v>452000000</v>
+      </c>
+      <c r="P12">
+        <v>464000000</v>
+      </c>
+      <c r="Q12">
+        <v>216000000</v>
+      </c>
+      <c r="R12">
+        <v>325000000</v>
+      </c>
+      <c r="S12">
+        <v>366000000</v>
+      </c>
+      <c r="T12">
+        <v>350000000</v>
+      </c>
+      <c r="U12">
+        <v>175000000</v>
+      </c>
+      <c r="V12">
+        <v>745000000</v>
+      </c>
+      <c r="W12">
+        <v>617000000</v>
+      </c>
+      <c r="X12">
+        <v>645000000</v>
+      </c>
+      <c r="Y12">
+        <v>288000000</v>
+      </c>
+      <c r="Z12">
+        <v>225000000</v>
+      </c>
+      <c r="AA12">
+        <v>641000000</v>
+      </c>
+      <c r="AB12">
+        <v>804000000</v>
+      </c>
+      <c r="AC12">
+        <v>488000000</v>
+      </c>
+      <c r="AD12">
+        <v>553000000</v>
+      </c>
+      <c r="AE12">
+        <v>757000000</v>
+      </c>
+      <c r="AF12">
+        <v>881000000</v>
+      </c>
+      <c r="AG12">
+        <v>440000000</v>
+      </c>
+      <c r="AH12">
+        <v>-428000000</v>
+      </c>
+      <c r="AI12">
+        <v>222000000</v>
+      </c>
+      <c r="AJ12">
+        <v>497000000</v>
+      </c>
+      <c r="AK12">
+        <v>122000000</v>
+      </c>
+      <c r="AL12">
+        <v>-8004000000</v>
+      </c>
+      <c r="AM12">
+        <v>-6000000</v>
+      </c>
+      <c r="AN12">
+        <v>1000000</v>
+      </c>
+      <c r="AO12">
+        <v>-4000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>828000000</v>
+      </c>
+      <c r="C13">
+        <v>695000000</v>
+      </c>
+      <c r="D13">
+        <v>735000000</v>
+      </c>
+      <c r="E13">
+        <v>-940000000</v>
+      </c>
+      <c r="F13">
+        <v>-407000000</v>
+      </c>
+      <c r="G13">
+        <v>1212000000</v>
+      </c>
+      <c r="H13">
+        <v>652000000</v>
+      </c>
+      <c r="I13">
+        <v>-1177000000</v>
+      </c>
+      <c r="J13">
+        <v>-755000000</v>
+      </c>
+      <c r="K13">
+        <v>-5379000000</v>
+      </c>
+      <c r="L13">
+        <v>-5717000000</v>
+      </c>
+      <c r="M13">
+        <v>-534000000</v>
+      </c>
+      <c r="N13">
+        <v>1099000000</v>
+      </c>
+      <c r="O13">
+        <v>1495000000</v>
+      </c>
+      <c r="P13">
+        <v>1443000000</v>
+      </c>
+      <c r="Q13">
+        <v>730000000</v>
+      </c>
+      <c r="R13">
+        <v>1020000000</v>
+      </c>
+      <c r="S13">
+        <v>1322000000</v>
+      </c>
+      <c r="T13">
+        <v>1036000000</v>
+      </c>
+      <c r="U13">
         <v>557000000</v>
       </c>
-      <c r="F10">
-        <v>-1238000000</v>
-      </c>
-      <c r="G10">
-        <v>-40000000</v>
-      </c>
-      <c r="H10">
-        <v>-117000000</v>
-      </c>
-      <c r="I10">
-        <v>-249000000</v>
-      </c>
-      <c r="J10">
-        <v>-473000000</v>
-      </c>
-      <c r="K10">
-        <v>-2199000000</v>
-      </c>
-      <c r="L10">
-        <v>-197000000</v>
-      </c>
-      <c r="M10">
-        <v>-1000000</v>
-      </c>
-      <c r="N10">
-        <v>-124000000</v>
-      </c>
-      <c r="O10">
-        <v>-221000000</v>
-      </c>
-      <c r="P10">
-        <v>-74000000</v>
-      </c>
-      <c r="Q10">
-        <v>254000000</v>
-      </c>
-      <c r="R10">
-        <v>43000000</v>
-      </c>
-      <c r="S10">
-        <v>-298000000</v>
-      </c>
-      <c r="T10">
-        <v>-112000000</v>
-      </c>
-      <c r="U10">
-        <v>-118000000</v>
-      </c>
-      <c r="V10">
-        <v>-47000000</v>
-      </c>
-      <c r="W10">
-        <v>-151000000</v>
-      </c>
-      <c r="X10">
-        <v>-150000000</v>
-      </c>
-      <c r="Y10">
-        <v>-395000000</v>
-      </c>
-      <c r="Z10">
-        <v>-69000000</v>
-      </c>
-      <c r="AA10">
-        <v>-73000000</v>
-      </c>
-      <c r="AB10">
-        <v>-106000000</v>
-      </c>
-      <c r="AC10">
-        <v>-184000000</v>
-      </c>
-      <c r="AD10">
-        <v>-141000000</v>
-      </c>
-      <c r="AE10">
-        <v>-108000000</v>
-      </c>
-      <c r="AF10">
-        <v>-212000000</v>
-      </c>
-      <c r="AG10">
-        <v>-312000000</v>
-      </c>
-      <c r="AH10">
-        <v>-256000000</v>
-      </c>
-      <c r="AI10">
-        <v>-281000000</v>
-      </c>
-      <c r="AJ10">
-        <v>-285000000</v>
-      </c>
-      <c r="AK10">
-        <v>-226000000</v>
-      </c>
-      <c r="AL10">
-        <v>-200000000</v>
-      </c>
-      <c r="AM10">
-        <v>-228000000</v>
-      </c>
-      <c r="AN10">
-        <v>-219000000</v>
+      <c r="V13">
+        <v>299000000</v>
+      </c>
+      <c r="W13">
+        <v>1159000000</v>
+      </c>
+      <c r="X13">
+        <v>1186000000</v>
+      </c>
+      <c r="Y13">
+        <v>561000000</v>
+      </c>
+      <c r="Z13">
+        <v>444000000</v>
+      </c>
+      <c r="AA13">
+        <v>1259000000</v>
+      </c>
+      <c r="AB13">
+        <v>1546000000</v>
+      </c>
+      <c r="AC13">
+        <v>946000000</v>
+      </c>
+      <c r="AD13">
+        <v>980000000</v>
+      </c>
+      <c r="AE13">
+        <v>1315000000</v>
+      </c>
+      <c r="AF13">
+        <v>1485000000</v>
+      </c>
+      <c r="AG13">
+        <v>746000000</v>
+      </c>
+      <c r="AH13">
+        <v>-712000000</v>
+      </c>
+      <c r="AI13">
+        <v>357000000</v>
+      </c>
+      <c r="AJ13">
+        <v>801000000</v>
+      </c>
+      <c r="AK13">
+        <v>213000000</v>
+      </c>
+      <c r="AL13">
+        <v>8479000000</v>
+      </c>
+      <c r="AM13">
+        <v>1369000000</v>
+      </c>
+      <c r="AN13">
+        <v>685000000</v>
+      </c>
+      <c r="AO13">
+        <v>7000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>962000000</v>
-      </c>
-      <c r="C11">
-        <v>1033000000</v>
-      </c>
-      <c r="D11">
-        <v>-1200000000</v>
-      </c>
-      <c r="E11">
-        <v>-395000000</v>
-      </c>
-      <c r="F11">
-        <v>1532000000</v>
-      </c>
-      <c r="G11">
-        <v>776000000</v>
-      </c>
-      <c r="H11">
-        <v>-1515000000</v>
-      </c>
-      <c r="I11">
-        <v>-1107000000</v>
-      </c>
-      <c r="J11">
-        <v>-6859000000</v>
-      </c>
-      <c r="K11">
-        <v>-7014000000</v>
-      </c>
-      <c r="L11">
-        <v>-607000000</v>
-      </c>
-      <c r="M11">
-        <v>1398000000</v>
-      </c>
-      <c r="N11">
-        <v>1947000000</v>
-      </c>
-      <c r="O11">
-        <v>1907000000</v>
-      </c>
-      <c r="P11">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>828000000</v>
+      </c>
+      <c r="C14">
+        <v>695000000</v>
+      </c>
+      <c r="D14">
+        <v>735000000</v>
+      </c>
+      <c r="E14">
+        <v>-940000000</v>
+      </c>
+      <c r="F14">
+        <v>-407000000</v>
+      </c>
+      <c r="G14">
+        <v>1212000000</v>
+      </c>
+      <c r="H14">
+        <v>652000000</v>
+      </c>
+      <c r="I14">
+        <v>-1177000000</v>
+      </c>
+      <c r="J14">
+        <v>-755000000</v>
+      </c>
+      <c r="K14">
+        <v>-5379000000</v>
+      </c>
+      <c r="L14">
+        <v>-5717000000</v>
+      </c>
+      <c r="M14">
+        <v>-534000000</v>
+      </c>
+      <c r="N14">
+        <v>1099000000</v>
+      </c>
+      <c r="O14">
+        <v>1495000000</v>
+      </c>
+      <c r="P14">
+        <v>1443000000</v>
+      </c>
+      <c r="Q14">
+        <v>730000000</v>
+      </c>
+      <c r="R14">
+        <v>1020000000</v>
+      </c>
+      <c r="S14">
+        <v>1322000000</v>
+      </c>
+      <c r="T14">
+        <v>1036000000</v>
+      </c>
+      <c r="U14">
+        <v>557000000</v>
+      </c>
+      <c r="V14">
+        <v>299000000</v>
+      </c>
+      <c r="W14">
+        <v>1159000000</v>
+      </c>
+      <c r="X14">
+        <v>1186000000</v>
+      </c>
+      <c r="Y14">
+        <v>561000000</v>
+      </c>
+      <c r="Z14">
+        <v>444000000</v>
+      </c>
+      <c r="AA14">
+        <v>1259000000</v>
+      </c>
+      <c r="AB14">
+        <v>1546000000</v>
+      </c>
+      <c r="AC14">
         <v>946000000</v>
       </c>
-      <c r="Q11">
-        <v>1345000000</v>
-      </c>
-      <c r="R11">
-        <v>1688000000</v>
-      </c>
-      <c r="S11">
-        <v>1386000000</v>
-      </c>
-      <c r="T11">
-        <v>732000000</v>
-      </c>
-      <c r="U11">
-        <v>1044000000</v>
-      </c>
-      <c r="V11">
-        <v>1776000000</v>
-      </c>
-      <c r="W11">
-        <v>1831000000</v>
-      </c>
-      <c r="X11">
-        <v>849000000</v>
-      </c>
-      <c r="Y11">
-        <v>669000000</v>
-      </c>
-      <c r="Z11">
-        <v>1900000000</v>
-      </c>
-      <c r="AA11">
-        <v>2350000000</v>
-      </c>
-      <c r="AB11">
-        <v>1434000000</v>
-      </c>
-      <c r="AC11">
-        <v>1533000000</v>
-      </c>
-      <c r="AD11">
-        <v>2072000000</v>
-      </c>
-      <c r="AE11">
-        <v>2366000000</v>
-      </c>
-      <c r="AF11">
-        <v>1186000000</v>
-      </c>
-      <c r="AG11">
-        <v>-1140000000</v>
-      </c>
-      <c r="AH11">
-        <v>579000000</v>
-      </c>
-      <c r="AI11">
-        <v>1298000000</v>
-      </c>
-      <c r="AJ11">
-        <v>335000000</v>
-      </c>
-      <c r="AK11">
-        <v>475000000</v>
-      </c>
-      <c r="AL11">
-        <v>1363000000</v>
-      </c>
-      <c r="AM11">
-        <v>686000000</v>
-      </c>
-      <c r="AN11">
-        <v>3000000</v>
+      <c r="AD14">
+        <v>980000000</v>
+      </c>
+      <c r="AE14">
+        <v>1315000000</v>
+      </c>
+      <c r="AF14">
+        <v>1485000000</v>
+      </c>
+      <c r="AG14">
+        <v>746000000</v>
+      </c>
+      <c r="AH14">
+        <v>-712000000</v>
+      </c>
+      <c r="AI14">
+        <v>357000000</v>
+      </c>
+      <c r="AJ14">
+        <v>801000000</v>
+      </c>
+      <c r="AK14">
+        <v>213000000</v>
+      </c>
+      <c r="AL14">
+        <v>8479000000</v>
+      </c>
+      <c r="AM14">
+        <v>1369000000</v>
+      </c>
+      <c r="AN14">
+        <v>685000000</v>
+      </c>
+      <c r="AO14">
+        <v>7000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>267000000</v>
-      </c>
-      <c r="C12">
-        <v>298000000</v>
-      </c>
-      <c r="D12">
-        <v>-260000000</v>
-      </c>
-      <c r="E12">
-        <v>13000000</v>
-      </c>
-      <c r="F12">
-        <v>320000000</v>
-      </c>
-      <c r="G12">
-        <v>124000000</v>
-      </c>
-      <c r="H12">
-        <v>-338000000</v>
-      </c>
-      <c r="I12">
-        <v>-352000000</v>
-      </c>
-      <c r="J12">
-        <v>-1480000000</v>
-      </c>
-      <c r="K12">
-        <v>-1297000000</v>
-      </c>
-      <c r="L12">
-        <v>-73000000</v>
-      </c>
-      <c r="M12">
-        <v>299000000</v>
-      </c>
-      <c r="N12">
-        <v>452000000</v>
-      </c>
-      <c r="O12">
-        <v>464000000</v>
-      </c>
-      <c r="P12">
-        <v>216000000</v>
-      </c>
-      <c r="Q12">
-        <v>325000000</v>
-      </c>
-      <c r="R12">
-        <v>366000000</v>
-      </c>
-      <c r="S12">
-        <v>350000000</v>
-      </c>
-      <c r="T12">
-        <v>175000000</v>
-      </c>
-      <c r="U12">
-        <v>745000000</v>
-      </c>
-      <c r="V12">
-        <v>617000000</v>
-      </c>
-      <c r="W12">
-        <v>645000000</v>
-      </c>
-      <c r="X12">
-        <v>288000000</v>
-      </c>
-      <c r="Y12">
-        <v>225000000</v>
-      </c>
-      <c r="Z12">
-        <v>641000000</v>
-      </c>
-      <c r="AA12">
-        <v>804000000</v>
-      </c>
-      <c r="AB12">
-        <v>488000000</v>
-      </c>
-      <c r="AC12">
-        <v>553000000</v>
-      </c>
-      <c r="AD12">
-        <v>757000000</v>
-      </c>
-      <c r="AE12">
-        <v>881000000</v>
-      </c>
-      <c r="AF12">
-        <v>440000000</v>
-      </c>
-      <c r="AG12">
-        <v>-428000000</v>
-      </c>
-      <c r="AH12">
-        <v>222000000</v>
-      </c>
-      <c r="AI12">
-        <v>497000000</v>
-      </c>
-      <c r="AJ12">
-        <v>122000000</v>
-      </c>
-      <c r="AK12">
-        <v>-8004000000</v>
-      </c>
-      <c r="AL12">
-        <v>-6000000</v>
-      </c>
-      <c r="AM12">
-        <v>1000000</v>
-      </c>
-      <c r="AN12">
-        <v>-4000000</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>1.09</v>
+      </c>
+      <c r="D15">
+        <v>1.15</v>
+      </c>
+      <c r="E15">
+        <v>-1.48</v>
+      </c>
+      <c r="F15">
+        <v>-0.64</v>
+      </c>
+      <c r="G15">
+        <v>1.9</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
+      <c r="I15">
+        <v>-1.85</v>
+      </c>
+      <c r="J15">
+        <v>-1.19</v>
+      </c>
+      <c r="K15">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="L15">
+        <v>-9.01</v>
+      </c>
+      <c r="M15">
+        <v>-0.84</v>
+      </c>
+      <c r="N15">
+        <v>1.71</v>
+      </c>
+      <c r="O15">
+        <v>2.32</v>
+      </c>
+      <c r="P15">
+        <v>2.22</v>
+      </c>
+      <c r="Q15">
+        <v>1.1</v>
+      </c>
+      <c r="R15">
+        <v>1.5</v>
+      </c>
+      <c r="S15">
+        <v>1.91</v>
+      </c>
+      <c r="T15">
+        <v>1.47</v>
+      </c>
+      <c r="U15">
+        <v>0.78</v>
+      </c>
+      <c r="V15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W15">
+        <v>1.64</v>
+      </c>
+      <c r="X15">
+        <v>1.68</v>
+      </c>
+      <c r="Y15">
+        <v>0.83</v>
+      </c>
+      <c r="Z15">
+        <v>0.85</v>
+      </c>
+      <c r="AA15">
+        <v>1.7</v>
+      </c>
+      <c r="AB15">
+        <v>2.04</v>
+      </c>
+      <c r="AC15">
+        <v>1.22</v>
+      </c>
+      <c r="AD15">
+        <v>1.26</v>
+      </c>
+      <c r="AE15">
+        <v>1.67</v>
+      </c>
+      <c r="AF15">
+        <v>1.85</v>
+      </c>
+      <c r="AG15">
+        <v>0.91</v>
+      </c>
+      <c r="AH15">
+        <v>-0.86</v>
+      </c>
+      <c r="AI15">
+        <v>0.43</v>
+      </c>
+      <c r="AJ15">
+        <v>0.95</v>
+      </c>
+      <c r="AK15">
+        <v>0.25</v>
+      </c>
+      <c r="AL15">
+        <v>10.02</v>
+      </c>
+      <c r="AM15">
+        <v>1.61</v>
+      </c>
+      <c r="AN15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO15">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>695000000</v>
-      </c>
-      <c r="C13">
-        <v>735000000</v>
-      </c>
-      <c r="D13">
-        <v>-940000000</v>
-      </c>
-      <c r="E13">
-        <v>-407000000</v>
-      </c>
-      <c r="F13">
-        <v>1212000000</v>
-      </c>
-      <c r="G13">
-        <v>652000000</v>
-      </c>
-      <c r="H13">
-        <v>-1177000000</v>
-      </c>
-      <c r="I13">
-        <v>-755000000</v>
-      </c>
-      <c r="J13">
-        <v>-5379000000</v>
-      </c>
-      <c r="K13">
-        <v>-5717000000</v>
-      </c>
-      <c r="L13">
-        <v>-534000000</v>
-      </c>
-      <c r="M13">
-        <v>1099000000</v>
-      </c>
-      <c r="N13">
-        <v>1495000000</v>
-      </c>
-      <c r="O13">
-        <v>1443000000</v>
-      </c>
-      <c r="P13">
-        <v>730000000</v>
-      </c>
-      <c r="Q13">
-        <v>1020000000</v>
-      </c>
-      <c r="R13">
-        <v>1322000000</v>
-      </c>
-      <c r="S13">
-        <v>1036000000</v>
-      </c>
-      <c r="T13">
-        <v>557000000</v>
-      </c>
-      <c r="U13">
-        <v>299000000</v>
-      </c>
-      <c r="V13">
-        <v>1159000000</v>
-      </c>
-      <c r="W13">
-        <v>1186000000</v>
-      </c>
-      <c r="X13">
-        <v>561000000</v>
-      </c>
-      <c r="Y13">
-        <v>444000000</v>
-      </c>
-      <c r="Z13">
-        <v>1259000000</v>
-      </c>
-      <c r="AA13">
-        <v>1546000000</v>
-      </c>
-      <c r="AB13">
-        <v>946000000</v>
-      </c>
-      <c r="AC13">
-        <v>980000000</v>
-      </c>
-      <c r="AD13">
-        <v>1315000000</v>
-      </c>
-      <c r="AE13">
-        <v>1485000000</v>
-      </c>
-      <c r="AF13">
-        <v>746000000</v>
-      </c>
-      <c r="AG13">
-        <v>-712000000</v>
-      </c>
-      <c r="AH13">
-        <v>357000000</v>
-      </c>
-      <c r="AI13">
-        <v>801000000</v>
-      </c>
-      <c r="AJ13">
-        <v>213000000</v>
-      </c>
-      <c r="AK13">
-        <v>8479000000</v>
-      </c>
-      <c r="AL13">
-        <v>1369000000</v>
-      </c>
-      <c r="AM13">
-        <v>685000000</v>
-      </c>
-      <c r="AN13">
-        <v>7000000</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>1.08</v>
+      </c>
+      <c r="D16">
+        <v>1.15</v>
+      </c>
+      <c r="E16">
+        <v>-1.48</v>
+      </c>
+      <c r="F16">
+        <v>-0.64</v>
+      </c>
+      <c r="G16">
+        <v>1.89</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
+      <c r="I16">
+        <v>-1.85</v>
+      </c>
+      <c r="J16">
+        <v>-1.19</v>
+      </c>
+      <c r="K16">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="L16">
+        <v>-9.01</v>
+      </c>
+      <c r="M16">
+        <v>-0.84</v>
+      </c>
+      <c r="N16">
+        <v>1.71</v>
+      </c>
+      <c r="O16">
+        <v>2.31</v>
+      </c>
+      <c r="P16">
+        <v>2.21</v>
+      </c>
+      <c r="Q16">
+        <v>1.09</v>
+      </c>
+      <c r="R16">
+        <v>1.49</v>
+      </c>
+      <c r="S16">
+        <v>1.91</v>
+      </c>
+      <c r="T16">
+        <v>1.47</v>
+      </c>
+      <c r="U16">
+        <v>0.77</v>
+      </c>
+      <c r="V16">
+        <v>0.8</v>
+      </c>
+      <c r="W16">
+        <v>1.64</v>
+      </c>
+      <c r="X16">
+        <v>1.68</v>
+      </c>
+      <c r="Y16">
+        <v>0.82</v>
+      </c>
+      <c r="Z16">
+        <v>0.84</v>
+      </c>
+      <c r="AA16">
+        <v>1.69</v>
+      </c>
+      <c r="AB16">
+        <v>2.03</v>
+      </c>
+      <c r="AC16">
+        <v>1.21</v>
+      </c>
+      <c r="AD16">
+        <v>1.25</v>
+      </c>
+      <c r="AE16">
+        <v>1.65</v>
+      </c>
+      <c r="AF16">
+        <v>1.83</v>
+      </c>
+      <c r="AG16">
+        <v>0.9</v>
+      </c>
+      <c r="AH16">
+        <v>-0.86</v>
+      </c>
+      <c r="AI16">
+        <v>0.42</v>
+      </c>
+      <c r="AJ16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AK16">
+        <v>0.25</v>
+      </c>
+      <c r="AL16">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AM16">
+        <v>1.59</v>
+      </c>
+      <c r="AN16">
+        <v>0.8</v>
+      </c>
+      <c r="AO16">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>695000000</v>
-      </c>
-      <c r="C14">
-        <v>735000000</v>
-      </c>
-      <c r="D14">
-        <v>-940000000</v>
-      </c>
-      <c r="E14">
-        <v>-408000000</v>
-      </c>
-      <c r="F14">
-        <v>1212000000</v>
-      </c>
-      <c r="G14">
-        <v>652000000</v>
-      </c>
-      <c r="H14">
-        <v>-1177000000</v>
-      </c>
-      <c r="I14">
-        <v>-755000000</v>
-      </c>
-      <c r="J14">
-        <v>-5379000000</v>
-      </c>
-      <c r="K14">
-        <v>-5717000000</v>
-      </c>
-      <c r="L14">
-        <v>-534000000</v>
-      </c>
-      <c r="M14">
-        <v>1099000000</v>
-      </c>
-      <c r="N14">
-        <v>1495000000</v>
-      </c>
-      <c r="O14">
-        <v>1443000000</v>
-      </c>
-      <c r="P14">
-        <v>730000000</v>
-      </c>
-      <c r="Q14">
-        <v>1020000000</v>
-      </c>
-      <c r="R14">
-        <v>1322000000</v>
-      </c>
-      <c r="S14">
-        <v>1036000000</v>
-      </c>
-      <c r="T14">
-        <v>557000000</v>
-      </c>
-      <c r="U14">
-        <v>299000000</v>
-      </c>
-      <c r="V14">
-        <v>1159000000</v>
-      </c>
-      <c r="W14">
-        <v>1186000000</v>
-      </c>
-      <c r="X14">
-        <v>561000000</v>
-      </c>
-      <c r="Y14">
-        <v>444000000</v>
-      </c>
-      <c r="Z14">
-        <v>1259000000</v>
-      </c>
-      <c r="AA14">
-        <v>1546000000</v>
-      </c>
-      <c r="AB14">
-        <v>946000000</v>
-      </c>
-      <c r="AC14">
-        <v>980000000</v>
-      </c>
-      <c r="AD14">
-        <v>1315000000</v>
-      </c>
-      <c r="AE14">
-        <v>1485000000</v>
-      </c>
-      <c r="AF14">
-        <v>746000000</v>
-      </c>
-      <c r="AG14">
-        <v>-712000000</v>
-      </c>
-      <c r="AH14">
-        <v>357000000</v>
-      </c>
-      <c r="AI14">
-        <v>801000000</v>
-      </c>
-      <c r="AJ14">
-        <v>213000000</v>
-      </c>
-      <c r="AK14">
-        <v>8479000000</v>
-      </c>
-      <c r="AL14">
-        <v>1369000000</v>
-      </c>
-      <c r="AM14">
-        <v>685000000</v>
-      </c>
-      <c r="AN14">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.08</v>
-      </c>
-      <c r="C15">
-        <v>1.15</v>
-      </c>
-      <c r="D15">
-        <v>-1.48</v>
-      </c>
-      <c r="E15">
-        <v>-0.64</v>
-      </c>
-      <c r="F15">
-        <v>1.89</v>
-      </c>
-      <c r="G15">
-        <v>1.02</v>
-      </c>
-      <c r="H15">
-        <v>-1.85</v>
-      </c>
-      <c r="I15">
-        <v>-1.19</v>
-      </c>
-      <c r="J15">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="K15">
-        <v>-9.01</v>
-      </c>
-      <c r="L15">
-        <v>-0.84</v>
-      </c>
-      <c r="M15">
-        <v>1.71</v>
-      </c>
-      <c r="N15">
-        <v>2.32</v>
-      </c>
-      <c r="O15">
-        <v>2.22</v>
-      </c>
-      <c r="P15">
-        <v>1.1</v>
-      </c>
-      <c r="Q15">
-        <v>1.5</v>
-      </c>
-      <c r="R15">
-        <v>1.91</v>
-      </c>
-      <c r="S15">
-        <v>1.47</v>
-      </c>
-      <c r="T15">
-        <v>0.78</v>
-      </c>
-      <c r="U15">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="V15">
-        <v>1.64</v>
-      </c>
-      <c r="W15">
-        <v>1.68</v>
-      </c>
-      <c r="X15">
-        <v>0.83</v>
-      </c>
-      <c r="Y15">
-        <v>0.85</v>
-      </c>
-      <c r="Z15">
-        <v>1.7</v>
-      </c>
-      <c r="AA15">
-        <v>2.04</v>
-      </c>
-      <c r="AB15">
-        <v>1.22</v>
-      </c>
-      <c r="AC15">
-        <v>1.26</v>
-      </c>
-      <c r="AD15">
-        <v>1.67</v>
-      </c>
-      <c r="AE15">
-        <v>1.85</v>
-      </c>
-      <c r="AF15">
-        <v>0.91</v>
-      </c>
-      <c r="AG15">
-        <v>-0.86</v>
-      </c>
-      <c r="AH15">
-        <v>0.43</v>
-      </c>
-      <c r="AI15">
-        <v>0.95</v>
-      </c>
-      <c r="AJ15">
-        <v>0.25</v>
-      </c>
-      <c r="AK15">
-        <v>10.02</v>
-      </c>
-      <c r="AL15">
-        <v>1.61</v>
-      </c>
-      <c r="AM15">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AN15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.08</v>
-      </c>
-      <c r="C16">
-        <v>1.15</v>
-      </c>
-      <c r="D16">
-        <v>-1.48</v>
-      </c>
-      <c r="E16">
-        <v>-0.64</v>
-      </c>
-      <c r="F16">
-        <v>1.89</v>
-      </c>
-      <c r="G16">
-        <v>1.02</v>
-      </c>
-      <c r="H16">
-        <v>-1.85</v>
-      </c>
-      <c r="I16">
-        <v>-1.19</v>
-      </c>
-      <c r="J16">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="K16">
-        <v>-9.01</v>
-      </c>
-      <c r="L16">
-        <v>-0.84</v>
-      </c>
-      <c r="M16">
-        <v>1.71</v>
-      </c>
-      <c r="N16">
-        <v>2.31</v>
-      </c>
-      <c r="O16">
-        <v>2.21</v>
-      </c>
-      <c r="P16">
-        <v>1.09</v>
-      </c>
-      <c r="Q16">
-        <v>1.49</v>
-      </c>
-      <c r="R16">
-        <v>1.91</v>
-      </c>
-      <c r="S16">
-        <v>1.47</v>
-      </c>
-      <c r="T16">
-        <v>0.77</v>
-      </c>
-      <c r="U16">
-        <v>0.8</v>
-      </c>
-      <c r="V16">
-        <v>1.64</v>
-      </c>
-      <c r="W16">
-        <v>1.68</v>
-      </c>
-      <c r="X16">
-        <v>0.82</v>
-      </c>
-      <c r="Y16">
-        <v>0.84</v>
-      </c>
-      <c r="Z16">
-        <v>1.69</v>
-      </c>
-      <c r="AA16">
-        <v>2.03</v>
-      </c>
-      <c r="AB16">
-        <v>1.21</v>
-      </c>
-      <c r="AC16">
-        <v>1.25</v>
-      </c>
-      <c r="AD16">
-        <v>1.65</v>
-      </c>
-      <c r="AE16">
-        <v>1.83</v>
-      </c>
-      <c r="AF16">
-        <v>0.9</v>
-      </c>
-      <c r="AG16">
-        <v>-0.86</v>
-      </c>
-      <c r="AH16">
-        <v>0.42</v>
-      </c>
-      <c r="AI16">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AJ16">
-        <v>0.25</v>
-      </c>
-      <c r="AK16">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AL16">
-        <v>1.59</v>
-      </c>
-      <c r="AM16">
-        <v>0.8</v>
-      </c>
-      <c r="AN16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>638000000</v>
@@ -2361,120 +2514,123 @@
         <v>638000000</v>
       </c>
       <c r="D17">
-        <v>637000000</v>
+        <v>638000000</v>
       </c>
       <c r="E17">
         <v>637000000</v>
       </c>
       <c r="F17">
-        <v>637000000</v>
+        <v>636000000</v>
       </c>
       <c r="G17">
         <v>637000000</v>
       </c>
       <c r="H17">
-        <v>636000000</v>
+        <v>637000000</v>
       </c>
       <c r="I17">
         <v>636000000</v>
       </c>
       <c r="J17">
-        <v>635000000</v>
+        <v>636000000</v>
       </c>
       <c r="K17">
         <v>635000000</v>
       </c>
       <c r="L17">
+        <v>635000000</v>
+      </c>
+      <c r="M17">
         <v>637000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>651000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>646000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>650000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>665000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>691000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>686000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>695000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>704000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>720000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>716000000</v>
-      </c>
-      <c r="W17">
-        <v>728000000</v>
       </c>
       <c r="X17">
         <v>728000000</v>
       </c>
       <c r="Y17">
+        <v>728000000</v>
+      </c>
+      <c r="Z17">
         <v>751000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>740000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>758000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>774000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>797000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>788000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>803000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>818000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>825000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>834000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>841000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>844000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>846000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>851000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>850000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>848000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>641000000</v>
@@ -2483,7 +2639,7 @@
         <v>641000000</v>
       </c>
       <c r="D18">
-        <v>637000000</v>
+        <v>641000000</v>
       </c>
       <c r="E18">
         <v>637000000</v>
@@ -2492,1599 +2648,1632 @@
         <v>641000000</v>
       </c>
       <c r="G18">
+        <v>641000000</v>
+      </c>
+      <c r="H18">
         <v>642000000</v>
-      </c>
-      <c r="H18">
-        <v>636000000</v>
       </c>
       <c r="I18">
         <v>636000000</v>
       </c>
       <c r="J18">
-        <v>635000000</v>
+        <v>636000000</v>
       </c>
       <c r="K18">
         <v>635000000</v>
       </c>
       <c r="L18">
+        <v>635000000</v>
+      </c>
+      <c r="M18">
         <v>637000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>653000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>648000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>652000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>667000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>694000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>688000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>697000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>706000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>723000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>719000000</v>
-      </c>
-      <c r="W18">
-        <v>731000000</v>
       </c>
       <c r="X18">
         <v>731000000</v>
       </c>
       <c r="Y18">
+        <v>731000000</v>
+      </c>
+      <c r="Z18">
         <v>755000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>744000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>763000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>780000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>804000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>795000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>811000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>826000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>825000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>843000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>850000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>853000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>858000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>861000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>859000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>855000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>0.178</v>
+        <v>0.3509</v>
       </c>
       <c r="C19">
-        <v>0.1834</v>
+        <v>0.3508</v>
       </c>
       <c r="D19">
-        <v>-0.0073</v>
+        <v>0.3788</v>
       </c>
       <c r="E19">
-        <v>0.1127</v>
+        <v>0.2472</v>
       </c>
       <c r="F19">
-        <v>0.1181</v>
+        <v>0.335</v>
       </c>
       <c r="G19">
+        <v>0.3402</v>
+      </c>
+      <c r="H19">
         <v>0.2407</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.1439</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.0068</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.1992</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1.3978</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.2322</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.2619</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.3898</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.3999</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.3567</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.3443</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.3767</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.3884</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.3627</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.3891</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.4157</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.4225</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.3808</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.378</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.4345</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.4701</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.423</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-0.0274</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.4304</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.4682</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.4057</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.1852</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.3748</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.4019</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.3569</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.3745</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.2834</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.22</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.1696</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.1094</v>
+      </c>
+      <c r="C20">
         <v>0.1042</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1099</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.0838</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.0278</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.2409</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1145</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.3369</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.216</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-2.0856</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-3.28</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.0477</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.1223</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1649</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.1698</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.0974</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.1016</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.1376</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.143</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.0847</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1136</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.1648</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.1844</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.1098</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.1148</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.1878</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2319</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.1665</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.1807</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.1992</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2311</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1489</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-0.0858</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.0747</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1487</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.06950000000000001</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.0772</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.149</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.09420000000000001</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.0261</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.0834</v>
+      </c>
+      <c r="C21">
         <v>0.0688</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.0747</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.1284</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.0417</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1674</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1089</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.3651</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.2786</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-2.24</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-4.7779</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.0706</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1222</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.155</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1521</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.09030000000000001</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1252</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1412</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.1177</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.07340000000000001</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1021</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1606</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1704</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.09329999999999999</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.0722</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1812</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2249</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.155</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1613</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1865</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.221</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1263</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-0.1182</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.0518</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.1222</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.0376</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.0523</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1299</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.0707</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.0004</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.0616</v>
+      </c>
+      <c r="C22">
         <v>0.0497</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.0532</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.1006</v>
       </c>
-      <c r="E22">
-        <v>-0.0431</v>
-      </c>
       <c r="F22">
+        <v>-0.043</v>
+      </c>
+      <c r="G22">
         <v>0.1324</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0915</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.2836</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.19</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1.7567</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-3.8944</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-0.0622</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.0961</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.119</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1151</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.0697</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.095</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1106</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.08799999999999999</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.0559</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0292</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1048</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1104</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.0616</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.0479</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1201</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.148</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1023</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1031</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1184</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1387</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.0795</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-0.0738</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.0319</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.07539999999999999</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.0239</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.9342</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1305</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.0706</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.0008</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1994000000</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>2029000000</v>
+        <v>1456000000</v>
       </c>
       <c r="D23">
-        <v>-282000000</v>
+        <v>1519000000</v>
       </c>
       <c r="E23">
-        <v>751000000</v>
+        <v>-783000000</v>
       </c>
       <c r="F23">
-        <v>917000000</v>
+        <v>263000000</v>
       </c>
       <c r="G23">
+        <v>2205000000</v>
+      </c>
+      <c r="H23">
         <v>816000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1398000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-858000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-6386000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-4815000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-410000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1399000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2071000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2128000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1020000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1091000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1645000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1684000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>844000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1162000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1823000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1982000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>999000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1064000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1969000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2423000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1540000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1717000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2213000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2474000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1398000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-828000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>835000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1579000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>620000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>701000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1563000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>914000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>222000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1470000000</v>
+      </c>
+      <c r="C24">
         <v>1456000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1519000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-783000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>263000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2205000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>816000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1398000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-858000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6386000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-4815000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-410000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1399000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2071000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2128000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1020000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1091000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1645000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1684000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>844000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1162000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1823000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1982000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>999000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1064000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1969000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>2423000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1540000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1717000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2213000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2474000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1398000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-828000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>835000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1579000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>620000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>701000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1563000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>914000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>222000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>828000000</v>
+      </c>
+      <c r="C25">
         <v>695000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>735000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-940000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-407000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1212000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>652000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-1177000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-755000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-5379000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-5717000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-534000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1099000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1495000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1443000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>730000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1020000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1322000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1036000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>557000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>299000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1159000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1186000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>561000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>444000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1259000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1546000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>946000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>980000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1315000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1485000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>746000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-712000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>357000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>801000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>213000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>8479000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1369000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>685000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>7000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>828000000</v>
+      </c>
+      <c r="C26">
         <v>695000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>735000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-940000000</v>
       </c>
-      <c r="E26">
-        <v>-408000000</v>
-      </c>
       <c r="F26">
+        <v>-407000000</v>
+      </c>
+      <c r="G26">
         <v>1212000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>652000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-1177000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-755000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-5379000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-5717000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-534000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1099000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1495000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1443000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>730000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1020000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1322000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1036000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>557000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>299000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1159000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1186000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>561000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>444000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1259000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1546000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>946000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>980000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1315000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1485000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>746000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-712000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>357000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>801000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>213000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>8479000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1369000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>685000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.2978</v>
+      </c>
+      <c r="C27">
         <v>1.0893</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.152</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-1.4757</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-0.6353</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.9027</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.0235</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1.8506</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1.161</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-8.4709</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-9.0032</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-0.8383</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.6906</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.3142</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.22</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.0977</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.4857</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.9271</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.4906</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.7912</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.4329</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.6187</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.6291</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.7706</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.6227</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.7014</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2.0396</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.2222</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.2487</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.6688</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.8493</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.912</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-0.863</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.4281</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.9524</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.2524</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>10.0225</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1.6087</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.8058999999999999</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.0083</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.2917</v>
+      </c>
+      <c r="C28">
         <v>1.0842</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.1466</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-1.4757</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.6189</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.8908</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.0156</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.8506</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.161</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-8.4709</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-9.0032</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-0.8383</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.6854</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2.3071</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.2132</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.0945</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.4732</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.9215</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.4864</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.789</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.4311</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.612</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.6224</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.7674</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.6251</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1.6922</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2.0262</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.2128</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.241</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.6541</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.8311</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.9031</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-0.863</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.4235</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.9424</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.2497</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>9.882300000000001</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1.59</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.7974</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.008200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.2978</v>
+      </c>
+      <c r="C29">
         <v>1.0893</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.152</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-1.4757</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.6353</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.9027</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.0235</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.8506</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-1.161</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-8.4709</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-9.0032</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-0.8383</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.6906</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2.3142</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.22</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.0977</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.4857</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.9271</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.4906</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.7912</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.4329</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.6187</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.6291</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.7706</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.6227</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1.7014</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>2.0396</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.2222</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.2487</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.6688</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.8493</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.912</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-0.863</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.4281</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.9524</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.2524</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>10.0225</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.6087</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.8058999999999999</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.0083</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1.2917</v>
+      </c>
+      <c r="C30">
         <v>1.0842</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.1466</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.4757</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.6189</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.8908</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.0156</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.8506</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1.161</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-8.4709</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-9.0032</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.8383</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.6854</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.3071</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.2132</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.0945</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.4732</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.9215</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.4864</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.789</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.4311</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.612</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.6224</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.7674</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.6251</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.6922</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2.0262</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.2128</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.241</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.6541</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.8311</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.9031</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.863</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.4235</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.9424</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.2497</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>9.882300000000001</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.59</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.7974</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.008200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>641000000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
         <v>641000000</v>
       </c>
       <c r="D31">
-        <v>637000000</v>
+        <v>641000000</v>
       </c>
       <c r="E31">
         <v>637000000</v>
       </c>
       <c r="F31">
+        <v>637000000</v>
+      </c>
+      <c r="G31">
         <v>641000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>642000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>636000000</v>
-      </c>
-      <c r="I31">
-        <v>635000000</v>
       </c>
       <c r="J31">
         <v>635000000</v>
@@ -4093,334 +4282,343 @@
         <v>635000000</v>
       </c>
       <c r="L31">
+        <v>635000000</v>
+      </c>
+      <c r="M31">
         <v>637000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>644000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>648000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>652000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>667000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>683000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>688000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>697000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>706000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>711000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>719000000</v>
-      </c>
-      <c r="W31">
-        <v>731000000</v>
       </c>
       <c r="X31">
         <v>731000000</v>
       </c>
       <c r="Y31">
+        <v>731000000</v>
+      </c>
+      <c r="Z31">
         <v>737000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>744000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>763000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>780000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>785000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>795000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>811000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>826000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>825000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>843000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>850000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>853000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>858000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>861000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>859000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>855000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>0.1427</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.1468</v>
+        <v>0.1042</v>
       </c>
       <c r="D32">
-        <v>-0.0302</v>
+        <v>0.1099</v>
       </c>
       <c r="E32">
-        <v>0.0793</v>
+        <v>-0.0838</v>
       </c>
       <c r="F32">
-        <v>0.1002</v>
+        <v>0.0278</v>
       </c>
       <c r="G32">
+        <v>0.2409</v>
+      </c>
+      <c r="H32">
         <v>0.1145</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.3369</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.216</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-2.0856</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-3.28</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-0.0477</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.1223</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.1649</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.1698</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.0974</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.1016</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.1376</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.143</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.0847</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.1136</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.1648</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.1844</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.1098</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.1148</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.1878</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.2319</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.1665</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.1807</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.1992</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.2311</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.1489</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-0.0858</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.0747</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.1487</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.06950000000000001</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.0772</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.149</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.09420000000000001</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.0261</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-0.2967</v>
+      </c>
+      <c r="C33">
         <v>0.0622</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.1834</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1895</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.0587</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0165</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.2619</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1665</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.3237</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.841</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-0.1975</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.0417</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.0848</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.1787</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.2608</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.1854</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-0.4093</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.1254</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.2486</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.1347</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.1849</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.144</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.2204</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-0.0912</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.1225</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.1769</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.3077</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.1093</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.1557</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.1861</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.2564</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.1743</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.0603</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.1215</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.1936</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.1067</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.1246</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.1107</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.1244</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.1181</v>
       </c>
     </row>
